--- a/BOM - Rover Mobile Robot.xlsx
+++ b/BOM - Rover Mobile Robot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gigi/Politecnico Di Torino Studenti Dropbox/Luigi Muratore/PERSONAL/PROGETTAZIONE/MOBILE ROBOT/Mechanical Part/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gigi/Desktop/CrltAltRover/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1FA5F4-39F7-1940-AA86-CF7A103090F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEF0347-3B01-CA4C-B89F-685A7E20440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{46504743-5E25-B042-AA3C-38D6299AD2E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{46504743-5E25-B042-AA3C-38D6299AD2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>BOM - ROVER - Mobile Robot</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>https://www.amazon.it/gp/product/B08MKVWF1V/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Arduino Mega 2560</t>
+  </si>
+  <si>
+    <t>https://www.amazon.it/Elegoo-ATmega2560-ATMEGA16U2-Compatibile-Arduino/dp/B071W7WP35/ref=sr_1_1_sspa?crid=1HXNRKYKELNZ9&amp;dib=eyJ2IjoiMSJ9.K6a8ED2X0fCeDsyUPlxrQ_QUVJaPiLvyHzpb4NjUJH_Jh1Lr-iwHQM3bAjjJfXki3TBbYR-fsYFOVy-cwq7jFY7MHuYhovCZEHWjXWJreuhdODjJQz23AUQBxkwWgr3t3YaBkEKQb-VPhAN3SraQAau54a6BBeCDQ-StaqGY-8wIek_JCKTZWIxFIj67CIOiryeULcvUugirKzlUf6SuzWa6eJ8XKGexG7RcEqyu1YKp2UTYnluckYNHMN_DbYa2oytk7RI-UQYiGltdiKjJBhRFrxaxE2QZ7C56ZrIx1dg.cV8fjxZYilZJDZ9GSkfgzWWnvelOf5OApO2I1Z5Ip84&amp;dib_tag=se&amp;keywords=arduino+mega&amp;qid=1740149648&amp;s=electronics&amp;sprefix=%2Celectronics%2C912&amp;sr=1-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
   </si>
 </sst>
 </file>
@@ -666,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63088A6-DA11-6A40-B695-3832B0DBD4E0}">
-  <dimension ref="B3:M33"/>
+  <dimension ref="B3:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,252 +719,263 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f>22*4</f>
         <v>88</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
-        <v>15</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>40</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="8"/>
-    </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1">
-        <v>120</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>115</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D30" s="8"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="9">
-        <f>SUM(C8:C24)</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="9">
+        <f>SUM(C8:C25)</f>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="7">
-        <f>SUM(C8:C31)</f>
-        <v>815</v>
+      <c r="C34" s="7">
+        <f>SUM(C8:C32)</f>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -966,20 +983,20 @@
     <mergeCell ref="D3:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="https://www.amazon.it/dp/B08K3886W7/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B08K3886W7&amp;pd_rd_w=opgLR&amp;content-id=amzn1.sym.10c44ba0-99a9-46d2-be7c-ad851b65838d&amp;pf_rd_p=10c44ba0-99a9-46d2-be7c-ad851b65838d&amp;pf_rd_r=WX2RZRZS6N3D6QFXA73S&amp;pd_rd_wg=MMAM3&amp;pd_rd_r=726c09bc-e3e2-4819-becd-53ffc1b91b91&amp;s=kitchen&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" xr:uid="{C3A8C323-CDB4-0E4A-B1C3-9429AAA930A0}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{F1FC8CA3-B2FA-3D47-ADBD-F46EF5117E94}"/>
-    <hyperlink ref="D28" r:id="rId3" xr:uid="{BADCF251-1480-4947-B93D-D87417AA10B0}"/>
-    <hyperlink ref="D27" r:id="rId4" xr:uid="{6C39BEE0-7A4F-534E-BAC4-762CD25BE227}"/>
-    <hyperlink ref="M27" r:id="rId5" xr:uid="{F46C03DA-DDFB-493F-8FE4-740907C775F9}"/>
-    <hyperlink ref="D18" r:id="rId6" xr:uid="{352EF8C0-335D-E348-AA2F-1B7A23831E49}"/>
-    <hyperlink ref="D19" r:id="rId7" xr:uid="{77F110F6-5D80-8D4E-B5B8-4C02F75528C1}"/>
-    <hyperlink ref="D20" r:id="rId8" xr:uid="{79A2ACCD-7D19-3041-B06F-1EC7BCFCC272}"/>
-    <hyperlink ref="D21" r:id="rId9" xr:uid="{3470D845-8349-1B4F-9F2B-AAACAC49B783}"/>
-    <hyperlink ref="G16" r:id="rId10" xr:uid="{BCEB9676-36CC-C44A-9C45-BF2650F71AEA}"/>
-    <hyperlink ref="K18" r:id="rId11" xr:uid="{EEC002A5-4671-6845-95CC-D81C5A6B65A1}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{9C13D3FE-483E-F041-8932-51B9C0856ECB}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{EE56340D-F806-0745-9E5B-D12D0E7767EB}"/>
-    <hyperlink ref="D26" r:id="rId14" xr:uid="{3BB7DEF3-F968-4F45-9473-65FC06FF6973}"/>
+    <hyperlink ref="D11" r:id="rId1" display="https://www.amazon.it/dp/B08K3886W7/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B08K3886W7&amp;pd_rd_w=opgLR&amp;content-id=amzn1.sym.10c44ba0-99a9-46d2-be7c-ad851b65838d&amp;pf_rd_p=10c44ba0-99a9-46d2-be7c-ad851b65838d&amp;pf_rd_r=WX2RZRZS6N3D6QFXA73S&amp;pd_rd_wg=MMAM3&amp;pd_rd_r=726c09bc-e3e2-4819-becd-53ffc1b91b91&amp;s=kitchen&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" xr:uid="{C3A8C323-CDB4-0E4A-B1C3-9429AAA930A0}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{F1FC8CA3-B2FA-3D47-ADBD-F46EF5117E94}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{BADCF251-1480-4947-B93D-D87417AA10B0}"/>
+    <hyperlink ref="D28" r:id="rId4" xr:uid="{6C39BEE0-7A4F-534E-BAC4-762CD25BE227}"/>
+    <hyperlink ref="M28" r:id="rId5" xr:uid="{F46C03DA-DDFB-493F-8FE4-740907C775F9}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{352EF8C0-335D-E348-AA2F-1B7A23831E49}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{77F110F6-5D80-8D4E-B5B8-4C02F75528C1}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{79A2ACCD-7D19-3041-B06F-1EC7BCFCC272}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{3470D845-8349-1B4F-9F2B-AAACAC49B783}"/>
+    <hyperlink ref="G17" r:id="rId10" xr:uid="{BCEB9676-36CC-C44A-9C45-BF2650F71AEA}"/>
+    <hyperlink ref="K19" r:id="rId11" xr:uid="{EEC002A5-4671-6845-95CC-D81C5A6B65A1}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{9C13D3FE-483E-F041-8932-51B9C0856ECB}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{EE56340D-F806-0745-9E5B-D12D0E7767EB}"/>
+    <hyperlink ref="D27" r:id="rId14" xr:uid="{3BB7DEF3-F968-4F45-9473-65FC06FF6973}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
